--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,14 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for MHV PHR exposing ECG (ClinicalProcedureTO) using FHIR API.
-- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- based on US-Core for Clinical Notes
-- must also have category of [Cardiology (LP29708-2)](https://loinc.org/LP29708-2)
-- .identifier holds the ClinicalProcedureTO.id
-- must have type of LOINC 11524-6
-TODO Questions:
-- none</t>
+    <t>A profile on the DocumentReference resource for MHV PHR exposing ECG/EKG (ClinicalProcedureTO) using FHIR API.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -121,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -668,6 +661,9 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -728,10 +724,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/DocumentReferenceTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1567,9 +1560,6 @@
     <t>N/A (needs data type R3 proposal)</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
     <t>DocumentReference.content.attachment.hash</t>
   </si>
   <si>
@@ -1632,9 +1622,6 @@
   </si>
   <si>
     <t>Attachment.creation</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>DocumentReference.content.format</t>
@@ -2217,7 +2204,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.86328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="15.32421875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -3388,7 +3375,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -4806,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4825,7 +4812,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4858,36 +4845,36 @@
         <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4898,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4913,13 +4900,13 @@
         <v>69</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4948,10 +4935,10 @@
         <v>150</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4969,7 +4956,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4987,19 +4974,19 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>37</v>
@@ -5010,10 +4997,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5039,13 +5026,13 @@
         <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5073,9 +5060,7 @@
       <c r="X23" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
         <v>228</v>
       </c>
@@ -5095,7 +5080,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -7427,7 +7412,7 @@
         <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -7550,10 +7535,10 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
@@ -7676,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -8430,10 +8415,10 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
@@ -8558,7 +8543,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8686,7 +8671,7 @@
         <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>50</v>
@@ -9688,7 +9673,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -9942,7 +9927,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>50</v>
@@ -10070,7 +10055,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -10179,15 +10164,15 @@
         <v>37</v>
       </c>
       <c r="AR63" t="s" s="2">
-        <v>496</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10198,7 +10183,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -10213,16 +10198,16 @@
         <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -10271,7 +10256,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10292,7 +10277,7 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -10307,15 +10292,15 @@
         <v>37</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>496</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10329,7 +10314,7 @@
         <v>49</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
@@ -10341,14 +10326,14 @@
         <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -10361,43 +10346,43 @@
         <v>37</v>
       </c>
       <c r="T65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10418,30 +10403,30 @@
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10452,10 +10437,10 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
@@ -10464,17 +10449,17 @@
         <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -10523,7 +10508,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10559,15 +10544,15 @@
         <v>37</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>518</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10578,7 +10563,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>50</v>
@@ -10593,13 +10578,13 @@
         <v>239</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10629,7 +10614,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>37</v>
@@ -10647,7 +10632,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10665,13 +10650,13 @@
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -10680,7 +10665,7 @@
         <v>37</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>37</v>
@@ -10688,10 +10673,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10717,13 +10702,13 @@
         <v>380</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10773,7 +10758,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10794,7 +10779,7 @@
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10814,10 +10799,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10938,10 +10923,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11064,10 +11049,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11192,10 +11177,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11206,7 +11191,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>50</v>
@@ -11218,13 +11203,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11275,7 +11260,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11290,19 +11275,19 @@
         <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>37</v>
@@ -11316,10 +11301,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11330,7 +11315,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -11345,13 +11330,13 @@
         <v>157</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11380,10 +11365,10 @@
         <v>313</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -11401,7 +11386,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11419,22 +11404,22 @@
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>37</v>
@@ -11442,10 +11427,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11471,10 +11456,10 @@
         <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11525,7 +11510,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11543,22 +11528,22 @@
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>37</v>
@@ -11566,10 +11551,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11580,7 +11565,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>37</v>
@@ -11595,10 +11580,10 @@
         <v>157</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11628,10 +11613,10 @@
         <v>313</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
@@ -11649,7 +11634,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11667,22 +11652,22 @@
         <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>37</v>
@@ -11690,10 +11675,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11704,7 +11689,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
@@ -11719,16 +11704,16 @@
         <v>157</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11756,10 +11741,10 @@
         <v>313</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -11777,7 +11762,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11795,13 +11780,13 @@
         <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>37</v>
@@ -11810,7 +11795,7 @@
         <v>37</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AR76" t="s" s="2">
         <v>37</v>
@@ -11818,10 +11803,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11832,7 +11817,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>37</v>
@@ -11844,13 +11829,13 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11901,7 +11886,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11934,7 +11919,7 @@
         <v>37</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AR77" t="s" s="2">
         <v>37</v>
@@ -11942,10 +11927,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11959,7 +11944,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>37</v>
@@ -11968,16 +11953,16 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12027,7 +12012,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12045,25 +12030,25 @@
         <v>37</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AR78" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ78" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AR78" t="s" s="2">
-        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.ecg</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.ecg</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -724,7 +724,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/DocumentReferenceTypeVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2204,7 +2204,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="99.78515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="15.32421875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="591">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -560,6 +564,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>II.root or Role.id.root</t>
@@ -2324,19 +2332,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -2348,15 +2356,15 @@
         <v>37</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2367,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -2376,19 +2384,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2438,13 +2446,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2479,10 +2487,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2493,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2502,16 +2510,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2562,19 +2570,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2603,10 +2611,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2617,28 +2625,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2688,19 +2696,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2729,10 +2737,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2743,7 +2751,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2755,16 +2763,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2790,13 +2798,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2814,19 +2822,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2855,21 +2863,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2881,16 +2889,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2940,19 +2948,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2961,7 +2969,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -2981,14 +2989,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3007,16 +3015,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3066,7 +3074,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3087,7 +3095,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -3107,14 +3115,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3133,16 +3141,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3192,7 +3200,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3204,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3213,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>37</v>
@@ -3233,14 +3241,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3253,25 +3261,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -3320,7 +3328,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3332,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3341,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -3361,10 +3369,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3384,22 +3392,22 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -3448,40 +3456,40 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AR10" t="s" s="2">
         <v>37</v>
@@ -3489,10 +3497,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3500,28 +3508,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3560,17 +3568,17 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3582,70 +3590,70 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3696,7 +3704,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3708,28 +3716,28 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>37</v>
@@ -3737,10 +3745,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3751,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -3763,13 +3771,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3820,13 +3828,13 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
@@ -3841,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3861,14 +3869,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3887,16 +3895,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3934,19 +3942,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3958,7 +3966,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -3967,7 +3975,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3987,10 +3995,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3998,34 +4006,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -4035,7 +4043,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>37</v>
@@ -4050,13 +4058,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -4074,19 +4082,19 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -4095,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -4104,7 +4112,7 @@
         <v>37</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>37</v>
@@ -4115,10 +4123,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4129,7 +4137,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -4138,22 +4146,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -4178,13 +4186,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -4202,19 +4210,19 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -4223,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -4232,7 +4240,7 @@
         <v>37</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>37</v>
@@ -4243,10 +4251,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4257,7 +4265,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -4266,22 +4274,22 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -4294,7 +4302,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -4330,19 +4338,19 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -4351,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -4360,7 +4368,7 @@
         <v>37</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>37</v>
@@ -4371,10 +4379,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4385,7 +4393,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -4394,19 +4402,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4420,7 +4428,7 @@
         <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>37</v>
@@ -4456,19 +4464,19 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -4477,7 +4485,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4486,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>37</v>
@@ -4497,10 +4505,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4511,7 +4519,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -4520,16 +4528,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4580,19 +4588,19 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -4601,7 +4609,7 @@
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4610,7 +4618,7 @@
         <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>37</v>
@@ -4621,10 +4629,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4635,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4644,19 +4652,19 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4706,19 +4714,19 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
@@ -4727,7 +4735,7 @@
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4736,7 +4744,7 @@
         <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>37</v>
@@ -4747,10 +4755,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4758,31 +4766,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4793,7 +4801,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4808,11 +4816,11 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4830,51 +4838,51 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4894,19 +4902,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4932,13 +4940,13 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4956,37 +4964,37 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>37</v>
@@ -4997,10 +5005,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5008,31 +5016,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5058,11 +5066,11 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -5080,40 +5088,40 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>37</v>
@@ -5121,10 +5129,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5135,7 +5143,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -5147,13 +5155,13 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5204,13 +5212,13 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
@@ -5225,7 +5233,7 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -5245,14 +5253,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5271,16 +5279,16 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5318,19 +5326,19 @@
         <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5342,7 +5350,7 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
@@ -5351,7 +5359,7 @@
         <v>37</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -5371,10 +5379,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5382,10 +5390,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -5394,22 +5402,22 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -5446,17 +5454,17 @@
         <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5468,7 +5476,7 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
@@ -5477,7 +5485,7 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -5486,34 +5494,34 @@
         <v>37</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -5522,22 +5530,22 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -5547,7 +5555,7 @@
         <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>37</v>
@@ -5586,7 +5594,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5598,7 +5606,7 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5607,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5616,7 +5624,7 @@
         <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>37</v>
@@ -5627,10 +5635,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5641,7 +5649,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5653,13 +5661,13 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5710,13 +5718,13 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
@@ -5731,7 +5739,7 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5751,14 +5759,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5777,16 +5785,16 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5824,19 +5832,19 @@
         <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5848,7 +5856,7 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
@@ -5857,7 +5865,7 @@
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5877,10 +5885,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5888,10 +5896,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5900,22 +5908,22 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5925,7 +5933,7 @@
         <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>37</v>
@@ -5964,19 +5972,19 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
@@ -5985,7 +5993,7 @@
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5994,7 +6002,7 @@
         <v>37</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>37</v>
@@ -6005,10 +6013,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6019,7 +6027,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -6028,19 +6036,19 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6090,19 +6098,19 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
@@ -6111,7 +6119,7 @@
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -6120,7 +6128,7 @@
         <v>37</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>37</v>
@@ -6131,10 +6139,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6142,10 +6150,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -6154,20 +6162,20 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -6216,19 +6224,19 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
@@ -6237,7 +6245,7 @@
         <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -6246,7 +6254,7 @@
         <v>37</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>37</v>
@@ -6257,10 +6265,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6271,7 +6279,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -6280,20 +6288,20 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -6342,19 +6350,19 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -6363,7 +6371,7 @@
         <v>37</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -6372,7 +6380,7 @@
         <v>37</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>37</v>
@@ -6383,10 +6391,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6397,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -6406,22 +6414,22 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -6470,19 +6478,19 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -6491,7 +6499,7 @@
         <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -6500,7 +6508,7 @@
         <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>37</v>
@@ -6511,10 +6519,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6525,7 +6533,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -6534,22 +6542,22 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6598,19 +6606,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -6619,7 +6627,7 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>37</v>
@@ -6628,7 +6636,7 @@
         <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>37</v>
@@ -6639,42 +6647,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6700,29 +6708,29 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6734,45 +6742,45 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6782,25 +6790,25 @@
         <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6826,13 +6834,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6850,7 +6858,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6862,28 +6870,28 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AR37" t="s" s="2">
         <v>37</v>
@@ -6891,44 +6899,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6939,7 +6947,7 @@
         <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>37</v>
@@ -6954,13 +6962,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6978,7 +6986,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6990,28 +6998,28 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>37</v>
@@ -7019,10 +7027,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7030,28 +7038,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7102,83 +7110,83 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7228,34 +7236,34 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>37</v>
@@ -7264,15 +7272,15 @@
         <v>37</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7286,25 +7294,25 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7354,7 +7362,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7366,28 +7374,28 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>37</v>
@@ -7395,10 +7403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7409,10 +7417,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -7421,16 +7429,16 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7480,40 +7488,40 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>37</v>
@@ -7521,10 +7529,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7538,7 +7546,7 @@
         <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
@@ -7547,16 +7555,16 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7606,28 +7614,28 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7647,10 +7655,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7670,19 +7678,19 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7732,7 +7740,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7744,16 +7752,16 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7765,7 +7773,7 @@
         <v>37</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AR44" t="s" s="2">
         <v>37</v>
@@ -7773,10 +7781,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7787,7 +7795,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -7799,13 +7807,13 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7856,13 +7864,13 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
@@ -7877,7 +7885,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7897,14 +7905,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7923,16 +7931,16 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7982,7 +7990,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7994,7 +8002,7 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -8003,7 +8011,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -8023,14 +8031,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8043,25 +8051,25 @@
         <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -8110,7 +8118,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -8122,7 +8130,7 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -8131,7 +8139,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -8151,10 +8159,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8162,10 +8170,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -8174,19 +8182,19 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8212,13 +8220,13 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
@@ -8236,28 +8244,28 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -8269,7 +8277,7 @@
         <v>37</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>37</v>
@@ -8277,10 +8285,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8288,10 +8296,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -8300,16 +8308,16 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8360,28 +8368,28 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -8393,7 +8401,7 @@
         <v>37</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>37</v>
@@ -8401,10 +8409,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8418,28 +8426,28 @@
         <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8488,19 +8496,19 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -8509,7 +8517,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -8518,10 +8526,10 @@
         <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>37</v>
@@ -8529,10 +8537,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8552,22 +8560,22 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8592,13 +8600,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -8616,7 +8624,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8628,28 +8636,28 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>37</v>
@@ -8657,10 +8665,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8668,28 +8676,28 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8740,10 +8748,10 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -8752,16 +8760,16 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8781,10 +8789,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8795,7 +8803,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -8807,13 +8815,13 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8864,13 +8872,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
@@ -8885,7 +8893,7 @@
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8905,14 +8913,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8931,16 +8939,16 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8990,7 +8998,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -9002,7 +9010,7 @@
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
@@ -9011,7 +9019,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -9031,14 +9039,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9051,25 +9059,25 @@
         <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -9118,7 +9126,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9130,7 +9138,7 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -9139,7 +9147,7 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -9159,10 +9167,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9170,28 +9178,28 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9242,40 +9250,40 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>37</v>
@@ -9283,10 +9291,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9297,7 +9305,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -9309,13 +9317,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9366,13 +9374,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
@@ -9387,7 +9395,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9407,14 +9415,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9433,16 +9441,16 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9480,19 +9488,19 @@
         <v>37</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9504,7 +9512,7 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
@@ -9513,7 +9521,7 @@
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -9533,10 +9541,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9547,29 +9555,29 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9582,7 +9590,7 @@
         <v>37</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>37</v>
@@ -9594,13 +9602,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -9618,19 +9626,19 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -9639,7 +9647,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9648,21 +9656,21 @@
         <v>37</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9682,20 +9690,20 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -9708,7 +9716,7 @@
         <v>37</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>37</v>
@@ -9720,13 +9728,13 @@
         <v>37</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>37</v>
@@ -9744,19 +9752,19 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -9765,7 +9773,7 @@
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9785,10 +9793,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9799,10 +9807,10 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>37</v>
@@ -9811,19 +9819,19 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9872,19 +9880,19 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
@@ -9893,7 +9901,7 @@
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9902,21 +9910,21 @@
         <v>37</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9930,28 +9938,28 @@
         <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9964,7 +9972,7 @@
         <v>37</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>37</v>
@@ -10000,19 +10008,19 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -10021,7 +10029,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -10030,7 +10038,7 @@
         <v>37</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>37</v>
@@ -10041,10 +10049,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10064,22 +10072,22 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -10128,19 +10136,19 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -10149,7 +10157,7 @@
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -10169,10 +10177,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10192,22 +10200,22 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -10256,19 +10264,19 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -10277,7 +10285,7 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -10297,10 +10305,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10311,29 +10319,29 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -10346,7 +10354,7 @@
         <v>37</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>37</v>
@@ -10382,19 +10390,19 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
@@ -10403,7 +10411,7 @@
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>37</v>
@@ -10418,15 +10426,15 @@
         <v>37</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10440,26 +10448,26 @@
         <v>38</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -10508,19 +10516,19 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>37</v>
@@ -10529,7 +10537,7 @@
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
@@ -10549,10 +10557,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10566,25 +10574,25 @@
         <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10610,11 +10618,11 @@
         <v>37</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>37</v>
@@ -10632,31 +10640,31 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -10665,7 +10673,7 @@
         <v>37</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AR67" t="s" s="2">
         <v>37</v>
@@ -10673,10 +10681,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10687,28 +10695,28 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10758,19 +10766,19 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
@@ -10779,7 +10787,7 @@
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10799,10 +10807,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10813,7 +10821,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -10825,13 +10833,13 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10882,13 +10890,13 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>37</v>
@@ -10903,7 +10911,7 @@
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10923,14 +10931,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10949,16 +10957,16 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11008,7 +11016,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -11020,7 +11028,7 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
@@ -11029,7 +11037,7 @@
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -11049,14 +11057,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11069,25 +11077,25 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>37</v>
@@ -11136,7 +11144,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11148,7 +11156,7 @@
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
@@ -11157,7 +11165,7 @@
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -11177,10 +11185,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11194,7 +11202,7 @@
         <v>38</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>37</v>
@@ -11203,13 +11211,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11260,7 +11268,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11272,22 +11280,22 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>37</v>
@@ -11301,10 +11309,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11327,16 +11335,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11362,13 +11370,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -11386,7 +11394,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11398,16 +11406,16 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>
@@ -11419,7 +11427,7 @@
         <v>37</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>37</v>
@@ -11427,10 +11435,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11441,25 +11449,25 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11510,31 +11518,31 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>37</v>
@@ -11543,7 +11551,7 @@
         <v>37</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>37</v>
@@ -11551,10 +11559,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11577,13 +11585,13 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11610,13 +11618,13 @@
         <v>37</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>37</v>
@@ -11634,31 +11642,31 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>37</v>
@@ -11667,7 +11675,7 @@
         <v>37</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>37</v>
@@ -11675,10 +11683,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11701,19 +11709,19 @@
         <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11738,13 +11746,13 @@
         <v>37</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -11762,31 +11770,31 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>37</v>
@@ -11795,7 +11803,7 @@
         <v>37</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AR76" t="s" s="2">
         <v>37</v>
@@ -11803,10 +11811,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11829,13 +11837,13 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11886,31 +11894,31 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>37</v>
@@ -11919,7 +11927,7 @@
         <v>37</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AR77" t="s" s="2">
         <v>37</v>
@@ -11927,10 +11935,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11944,7 +11952,7 @@
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>37</v>
@@ -11953,16 +11961,16 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -12012,7 +12020,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -12024,19 +12032,19 @@
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>37</v>
@@ -12045,10 +12053,10 @@
         <v>37</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AR78" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="666">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1316,6 +1316,105 @@
   </si>
   <si>
     <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension:when</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/noteAuthenticatedWhen}
+</t>
+  </si>
+  <si>
+    <t>When the authentication happened</t>
+  </si>
+  <si>
+    <t>DateTime of when the authentication happened</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -2312,7 +2411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR79"/>
+  <dimension ref="A1:AR86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7810,10 +7909,10 @@
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7822,17 +7921,15 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>420</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7881,7 +7978,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7893,16 +7990,16 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7922,21 +8019,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7945,19 +8042,19 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>426</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>427</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>428</v>
+        <v>184</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>429</v>
+        <v>143</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7995,19 +8092,19 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -8019,16 +8116,16 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -8040,7 +8137,7 @@
         <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
         <v>81</v>
@@ -8048,12 +8145,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
       </c>
@@ -8065,7 +8164,7 @@
         <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>81</v>
@@ -8074,13 +8173,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8131,19 +8230,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
@@ -8152,7 +8251,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -8172,21 +8271,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -8195,19 +8294,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8257,19 +8356,19 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>187</v>
+        <v>430</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -8278,7 +8377,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8298,46 +8397,44 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -8361,13 +8458,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -8385,19 +8482,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -8426,10 +8523,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8437,7 +8534,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>94</v>
@@ -8452,16 +8549,16 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8487,13 +8584,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -8511,10 +8608,10 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>94</v>
@@ -8529,10 +8626,10 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8544,7 +8641,7 @@
         <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>81</v>
@@ -8552,10 +8649,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8563,7 +8660,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>94</v>
@@ -8578,15 +8675,17 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>450</v>
+        <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8638,7 +8737,7 @@
         <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>94</v>
@@ -8653,10 +8752,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>454</v>
+        <v>137</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8668,7 +8767,7 @@
         <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>81</v>
@@ -8676,10 +8775,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8699,23 +8798,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8763,7 +8860,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8778,13 +8875,13 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8793,10 +8890,10 @@
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>81</v>
@@ -8804,10 +8901,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8830,20 +8927,18 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>202</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8867,13 +8962,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8891,7 +8986,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8909,22 +9004,22 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>81</v>
@@ -8932,10 +9027,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8943,28 +9038,28 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>426</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>477</v>
+        <v>178</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>478</v>
+        <v>179</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9015,28 +9110,28 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>476</v>
+        <v>180</v>
       </c>
       <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AH53" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>480</v>
+        <v>181</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -9056,21 +9151,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -9082,15 +9177,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9139,19 +9236,19 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -9180,14 +9277,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>139</v>
+        <v>467</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9200,24 +9297,26 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -9265,7 +9364,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9286,7 +9385,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -9306,46 +9405,44 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -9369,13 +9466,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -9393,28 +9490,28 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>137</v>
+        <v>478</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9426,7 +9523,7 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>81</v>
@@ -9434,10 +9531,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9451,7 +9548,7 @@
         <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
@@ -9460,13 +9557,13 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9517,7 +9614,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>94</v>
@@ -9529,28 +9626,28 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>81</v>
@@ -9558,10 +9655,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9572,28 +9669,32 @@
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>178</v>
+        <v>488</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9641,7 +9742,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>180</v>
+        <v>487</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9653,7 +9754,7 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9662,7 +9763,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>181</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9671,10 +9772,10 @@
         <v>81</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="AR58" t="s" s="2">
         <v>81</v>
@@ -9682,21 +9783,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9705,21 +9806,23 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>141</v>
+        <v>496</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>184</v>
+        <v>497</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9743,31 +9846,31 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>187</v>
+        <v>495</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9779,28 +9882,28 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>181</v>
+        <v>503</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>504</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -9808,10 +9911,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9819,7 +9922,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>94</v>
@@ -9834,18 +9937,16 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9857,7 +9958,7 @@
         <v>81</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>81</v>
@@ -9869,13 +9970,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9893,13 +9994,13 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
@@ -9911,10 +10012,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9923,21 +10024,21 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9948,7 +10049,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9957,21 +10058,19 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>508</v>
+        <v>179</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9983,7 +10082,7 @@
         <v>81</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>81</v>
@@ -9995,13 +10094,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -10019,7 +10118,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>511</v>
+        <v>180</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10031,7 +10130,7 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -10040,7 +10139,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>512</v>
+        <v>181</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -10067,17 +10166,17 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
@@ -10086,20 +10185,18 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>514</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>515</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>516</v>
+        <v>184</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -10147,19 +10244,19 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>519</v>
+        <v>187</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
@@ -10168,7 +10265,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>521</v>
+        <v>181</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -10177,56 +10274,56 @@
         <v>81</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR62" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>525</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>527</v>
+        <v>469</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>528</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>529</v>
+        <v>149</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -10239,7 +10336,7 @@
         <v>81</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>81</v>
@@ -10275,19 +10372,19 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -10296,7 +10393,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>532</v>
+        <v>137</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -10305,7 +10402,7 @@
         <v>81</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>81</v>
@@ -10316,10 +10413,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10327,13 +10424,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>81</v>
@@ -10342,20 +10439,16 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -10403,10 +10496,10 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>94</v>
@@ -10415,28 +10508,28 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>520</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>81</v>
@@ -10444,10 +10537,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10458,7 +10551,7 @@
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -10467,23 +10560,19 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>514</v>
+        <v>177</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>543</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10531,7 +10620,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10543,7 +10632,7 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -10552,7 +10641,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>548</v>
+        <v>181</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10572,44 +10661,44 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>550</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -10621,7 +10710,7 @@
         <v>81</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>81</v>
@@ -10645,31 +10734,31 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>187</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -10678,7 +10767,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>555</v>
+        <v>181</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10693,15 +10782,15 @@
         <v>81</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10712,7 +10801,7 @@
         <v>82</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>95</v>
@@ -10724,17 +10813,17 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>558</v>
+        <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10747,7 +10836,7 @@
         <v>81</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>81</v>
@@ -10759,13 +10848,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -10783,7 +10872,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10804,7 +10893,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10813,21 +10902,21 @@
         <v>81</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10841,7 +10930,7 @@
         <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>81</v>
@@ -10850,18 +10939,18 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10873,7 +10962,7 @@
         <v>81</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>81</v>
@@ -10885,11 +10974,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>567</v>
+        <v>120</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10907,7 +10998,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10925,13 +11016,13 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>569</v>
+        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -10940,7 +11031,7 @@
         <v>81</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>81</v>
@@ -10948,10 +11039,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10971,21 +11062,23 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>545</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
@@ -11033,7 +11126,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11042,7 +11135,7 @@
         <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>106</v>
@@ -11054,7 +11147,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -11063,21 +11156,21 @@
         <v>81</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11088,28 +11181,32 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>178</v>
+        <v>557</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -11121,7 +11218,7 @@
         <v>81</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>81</v>
@@ -11157,7 +11254,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>180</v>
+        <v>562</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11166,10 +11263,10 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -11178,7 +11275,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>181</v>
+        <v>563</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11187,7 +11284,7 @@
         <v>81</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>81</v>
+        <v>564</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>81</v>
@@ -11198,21 +11295,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -11221,21 +11318,23 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>140</v>
+        <v>566</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
+        <v>567</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>184</v>
+        <v>568</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -11283,19 +11382,19 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>187</v>
+        <v>571</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
@@ -11304,7 +11403,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>181</v>
+        <v>572</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -11324,45 +11423,45 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>140</v>
+        <v>545</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>437</v>
+        <v>574</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
+        <v>575</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>143</v>
+        <v>576</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>149</v>
+        <v>577</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -11411,19 +11510,19 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>578</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -11432,7 +11531,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>137</v>
+        <v>579</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11452,10 +11551,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11466,7 +11565,7 @@
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>95</v>
@@ -11475,10 +11574,10 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>580</v>
+        <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>581</v>
@@ -11487,7 +11586,9 @@
         <v>582</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -11499,7 +11600,7 @@
         <v>81</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>81</v>
@@ -11535,13 +11636,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -11550,19 +11651,19 @@
         <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>586</v>
+        <v>81</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>81</v>
@@ -11571,15 +11672,15 @@
         <v>81</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11593,27 +11694,27 @@
         <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>202</v>
+        <v>589</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11637,13 +11738,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11661,13 +11762,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -11679,10 +11780,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>593</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11694,7 +11795,7 @@
         <v>81</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>81</v>
@@ -11702,10 +11803,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11716,7 +11817,7 @@
         <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>95</v>
@@ -11728,15 +11829,17 @@
         <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11761,13 +11864,11 @@
         <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11785,7 +11886,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11806,19 +11907,19 @@
         <v>599</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>81</v>
@@ -11826,10 +11927,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11840,27 +11941,29 @@
         <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>202</v>
+        <v>457</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11885,13 +11988,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11909,7 +12012,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11927,13 +12030,13 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>610</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11942,7 +12045,7 @@
         <v>81</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="AR76" t="s" s="2">
         <v>81</v>
@@ -11950,10 +12053,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11964,7 +12067,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11976,20 +12079,16 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>613</v>
+        <v>178</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -12013,13 +12112,13 @@
         <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>617</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -12037,7 +12136,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>612</v>
+        <v>180</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12049,19 +12148,19 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>609</v>
+        <v>181</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -12070,7 +12169,7 @@
         <v>81</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>619</v>
+        <v>81</v>
       </c>
       <c r="AR77" t="s" s="2">
         <v>81</v>
@@ -12078,21 +12177,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -12104,15 +12203,17 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>621</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>622</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -12161,31 +12262,31 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>620</v>
+        <v>187</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>380</v>
+        <v>181</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -12194,7 +12295,7 @@
         <v>81</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>624</v>
+        <v>81</v>
       </c>
       <c r="AR78" t="s" s="2">
         <v>81</v>
@@ -12202,14 +12303,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12219,27 +12320,29 @@
         <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="I79" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>626</v>
+        <v>140</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>627</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>628</v>
+        <v>469</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -12287,7 +12390,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12299,35 +12402,911 @@
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AK80" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR80" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ81" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AR81" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AO79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ79" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ82" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AR79" t="s" s="2">
+      <c r="AR82" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
         <v>634</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ83" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AR83" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AR84" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AR85" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AR86" t="s" s="2">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR79">
+  <autoFilter ref="A1:AR86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12337,7 +13316,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -791,7 +791,7 @@
     <t>DocumentReference.status</t>
   </si>
   <si>
-    <t>current | superseded | entered-in-error</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of this document reference.</t>
@@ -801,9 +801,6 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -822,7 +819,7 @@
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>`current`</t>
+    <t>`current` if not `entered-in-error`</t>
   </si>
   <si>
     <t>DocumentReference.docStatus</t>
@@ -864,7 +861,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
+    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -940,6 +940,9 @@
   &lt;system value="http://loinc.org"/&gt;
   &lt;code value="11524-6"/&gt;
 &lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
   </si>
   <si>
     <t>DocumentReference.type.coding:LO.id</t>
@@ -1253,7 +1256,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1287,7 +1290,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner|Practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2058,7 +2061,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.location|Location) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -5167,7 +5170,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>81</v>
@@ -5186,7 +5189,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5219,36 +5222,36 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AQ22" t="s" s="2">
+      <c r="AR22" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5274,13 +5277,13 @@
         <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5309,11 +5312,11 @@
         <v>195</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5348,19 +5351,19 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>81</v>
@@ -5371,10 +5374,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5400,13 +5403,13 @@
         <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5434,7 +5437,9 @@
       <c r="X24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y24" s="2"/>
+      <c r="Y24" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Z24" t="s" s="2">
         <v>274</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -5759,7 +5764,7 @@
         <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5936,13 +5941,11 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -6001,10 +6004,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6125,10 +6128,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6251,10 +6254,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6280,16 +6283,16 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -6299,7 +6302,7 @@
         <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>81</v>
@@ -6338,7 +6341,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6359,7 +6362,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6368,7 +6371,7 @@
         <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>81</v>
@@ -6379,10 +6382,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6408,13 +6411,13 @@
         <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6464,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6485,7 +6488,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6494,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>81</v>
@@ -6505,10 +6508,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6516,7 +6519,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>94</v>
@@ -6534,14 +6537,14 @@
         <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6590,7 +6593,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6620,7 +6623,7 @@
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>81</v>
@@ -6631,10 +6634,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6660,14 +6663,14 @@
         <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6716,7 +6719,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6737,7 +6740,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6746,7 +6749,7 @@
         <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>81</v>
@@ -6757,10 +6760,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6783,19 +6786,19 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6844,7 +6847,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6865,7 +6868,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6874,7 +6877,7 @@
         <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>81</v>
@@ -6885,10 +6888,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6914,16 +6917,16 @@
         <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6972,7 +6975,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6993,7 +6996,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -7002,7 +7005,7 @@
         <v>81</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>81</v>
@@ -7013,18 +7016,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>83</v>
@@ -7042,13 +7045,13 @@
         <v>202</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7074,19 +7077,19 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -7096,7 +7099,7 @@
         <v>168</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -7114,13 +7117,13 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>279</v>
@@ -7129,24 +7132,24 @@
         <v>81</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7168,13 +7171,13 @@
         <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7203,10 +7206,10 @@
         <v>195</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -7224,7 +7227,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7242,13 +7245,13 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>279</v>
@@ -7257,7 +7260,7 @@
         <v>81</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>81</v>
@@ -7265,16 +7268,16 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>296</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7296,13 +7299,13 @@
         <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7313,7 +7316,7 @@
         <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>81</v>
@@ -7328,13 +7331,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -7352,7 +7355,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7370,13 +7373,13 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>279</v>
@@ -7385,7 +7388,7 @@
         <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>81</v>
@@ -7393,10 +7396,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7419,13 +7422,13 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7476,7 +7479,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7491,40 +7494,40 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7543,16 +7546,16 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7602,7 +7605,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7617,19 +7620,19 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>81</v>
@@ -7638,15 +7641,15 @@
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7669,16 +7672,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7728,7 +7731,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7743,25 +7746,25 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7769,10 +7772,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7795,16 +7798,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7854,7 +7857,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7869,25 +7872,25 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>81</v>
@@ -7895,10 +7898,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8019,10 +8022,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8145,13 +8148,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="C46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
@@ -8173,13 +8176,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8271,10 +8274,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8300,13 +8303,13 @@
         <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8356,7 +8359,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8365,7 +8368,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -8397,10 +8400,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8426,13 +8429,13 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8461,10 +8464,10 @@
         <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -8482,7 +8485,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8523,10 +8526,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8552,13 +8555,13 @@
         <v>152</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8608,7 +8611,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8629,7 +8632,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8649,10 +8652,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8678,13 +8681,13 @@
         <v>177</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8734,7 +8737,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8775,10 +8778,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8804,13 +8807,13 @@
         <v>242</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8860,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8875,13 +8878,13 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8901,10 +8904,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8927,16 +8930,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8986,7 +8989,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -9004,10 +9007,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -9019,7 +9022,7 @@
         <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AR52" t="s" s="2">
         <v>81</v>
@@ -9027,10 +9030,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9151,10 +9154,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9277,14 +9280,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9306,10 +9309,10 @@
         <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>143</v>
@@ -9364,7 +9367,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9405,10 +9408,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9434,13 +9437,13 @@
         <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9469,10 +9472,10 @@
         <v>195</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -9490,7 +9493,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>94</v>
@@ -9508,10 +9511,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9523,7 +9526,7 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>81</v>
@@ -9531,10 +9534,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9557,13 +9560,13 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9614,7 +9617,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>94</v>
@@ -9632,10 +9635,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9647,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>81</v>
@@ -9655,10 +9658,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9684,16 +9687,16 @@
         <v>177</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9742,7 +9745,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9763,7 +9766,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9772,10 +9775,10 @@
         <v>81</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AR58" t="s" s="2">
         <v>81</v>
@@ -9783,10 +9786,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9812,16 +9815,16 @@
         <v>202</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9849,10 +9852,10 @@
         <v>207</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9870,7 +9873,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9888,22 +9891,22 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -9911,10 +9914,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9937,13 +9940,13 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9994,7 +9997,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>94</v>
@@ -10012,10 +10015,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -10035,10 +10038,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10159,10 +10162,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10285,14 +10288,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10314,10 +10317,10 @@
         <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>143</v>
@@ -10372,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10413,10 +10416,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10439,13 +10442,13 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10496,7 +10499,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>94</v>
@@ -10508,28 +10511,28 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>81</v>
@@ -10537,10 +10540,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10661,10 +10664,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10787,10 +10790,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10816,14 +10819,14 @@
         <v>114</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10836,7 +10839,7 @@
         <v>81</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>81</v>
@@ -10851,10 +10854,10 @@
         <v>195</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -10872,7 +10875,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10893,7 +10896,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10902,21 +10905,21 @@
         <v>81</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AQ67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10942,14 +10945,14 @@
         <v>114</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10962,7 +10965,7 @@
         <v>81</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>81</v>
@@ -10998,7 +11001,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -11019,7 +11022,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -11039,10 +11042,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11065,19 +11068,19 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -11126,7 +11129,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -11135,7 +11138,7 @@
         <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>106</v>
@@ -11147,7 +11150,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -11156,21 +11159,21 @@
         <v>81</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11193,19 +11196,19 @@
         <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -11218,7 +11221,7 @@
         <v>81</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>81</v>
@@ -11254,7 +11257,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11263,7 +11266,7 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>106</v>
@@ -11275,7 +11278,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11284,7 +11287,7 @@
         <v>81</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>81</v>
@@ -11295,10 +11298,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11321,19 +11324,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -11382,7 +11385,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11403,7 +11406,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -11423,10 +11426,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11449,19 +11452,19 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -11510,7 +11513,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11531,7 +11534,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11551,10 +11554,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11580,14 +11583,14 @@
         <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -11600,7 +11603,7 @@
         <v>81</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>81</v>
@@ -11636,7 +11639,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11657,7 +11660,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -11672,15 +11675,15 @@
         <v>81</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11703,17 +11706,17 @@
         <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11762,7 +11765,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11783,7 +11786,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11803,10 +11806,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11832,13 +11835,13 @@
         <v>285</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11868,7 +11871,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11886,7 +11889,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11904,13 +11907,13 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
@@ -11919,7 +11922,7 @@
         <v>81</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AR75" t="s" s="2">
         <v>81</v>
@@ -11927,10 +11930,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11953,16 +11956,16 @@
         <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -12012,7 +12015,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -12033,7 +12036,7 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -12053,10 +12056,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12177,10 +12180,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12303,14 +12306,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12332,10 +12335,10 @@
         <v>140</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>143</v>
@@ -12390,7 +12393,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12431,10 +12434,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12457,13 +12460,13 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12514,7 +12517,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12529,19 +12532,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>81</v>
@@ -12555,10 +12558,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12584,13 +12587,13 @@
         <v>202</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12616,13 +12619,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -12640,7 +12643,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12658,10 +12661,10 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -12673,7 +12676,7 @@
         <v>81</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AR81" t="s" s="2">
         <v>81</v>
@@ -12681,10 +12684,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12710,10 +12713,10 @@
         <v>234</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12764,7 +12767,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12782,13 +12785,13 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12797,7 +12800,7 @@
         <v>81</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AR82" t="s" s="2">
         <v>81</v>
@@ -12805,10 +12808,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12834,10 +12837,10 @@
         <v>202</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12864,13 +12867,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12888,7 +12891,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12906,13 +12909,13 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12921,7 +12924,7 @@
         <v>81</v>
       </c>
       <c r="AQ83" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AR83" t="s" s="2">
         <v>81</v>
@@ -12929,10 +12932,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12958,16 +12961,16 @@
         <v>202</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12992,13 +12995,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -13016,7 +13019,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13034,14 +13037,14 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AN84" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
       </c>
@@ -13049,7 +13052,7 @@
         <v>81</v>
       </c>
       <c r="AQ84" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AR84" t="s" s="2">
         <v>81</v>
@@ -13057,10 +13060,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13083,13 +13086,13 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -13140,7 +13143,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13158,13 +13161,13 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -13173,7 +13176,7 @@
         <v>81</v>
       </c>
       <c r="AQ85" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AR85" t="s" s="2">
         <v>81</v>
@@ -13181,10 +13184,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13207,16 +13210,16 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13266,7 +13269,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13284,13 +13287,13 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -13299,10 +13302,10 @@
         <v>81</v>
       </c>
       <c r="AQ86" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR86" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
   </si>
   <si>
     <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -284,6 +284,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>ClinicalProcedureTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>ClinicalProcedureTO</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -542,6 +542,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {ClinicalProcedureTO.id}</t>
+  </si>
+  <si>
     <t>.id / .setId</t>
   </si>
   <si>
@@ -549,9 +552,6 @@
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {ClinicalProcedureTO.id}</t>
   </si>
   <si>
     <t>DocumentReference.identifier:TOid</t>
@@ -804,6 +804,9 @@
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
+    <t>`current` if not `entered-in-error`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -817,9 +820,6 @@
   </si>
   <si>
     <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>`current` if not `entered-in-error`</t>
   </si>
   <si>
     <t>DocumentReference.docStatus</t>
@@ -921,13 +921,13 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>LOINC#8601-7</t>
+  </si>
+  <si>
     <t>union(., ./translation)</t>
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>LOINC#8601-7</t>
   </si>
   <si>
     <t>DocumentReference.type.coding:LO</t>
@@ -1143,6 +1143,9 @@
 </t>
   </si>
   <si>
+    <t>`clinical-note` and Cardiology (LP29708-2)</t>
+  </si>
+  <si>
     <t>Composition.class</t>
   </si>
   <si>
@@ -1153,9 +1156,6 @@
   </si>
   <si>
     <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>`clinical-note` and Cardiology (LP29708-2)</t>
   </si>
   <si>
     <t>DocumentReference.category:us-core</t>
@@ -1194,6 +1194,9 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>GetPatient()</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1213,9 +1216,6 @@
   </si>
   <si>
     <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>GetPatient()</t>
   </si>
   <si>
     <t>DocumentReference.date</t>
@@ -1238,6 +1238,9 @@
     <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
   </si>
   <si>
+    <t>ConvertDate(ClinicalProcedureTO.timestamp)</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1248,9 +1251,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>ConvertDate(ClinicalProcedureTO.timestamp)</t>
   </si>
   <si>
     <t>DocumentReference.author</t>
@@ -1681,13 +1681,13 @@
     <t>Attachment.contentType</t>
   </si>
   <si>
+    <t>`text/plain`</t>
+  </si>
+  <si>
     <t>./mediaType, ./charset</t>
   </si>
   <si>
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
-  </si>
-  <si>
-    <t>`text`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -1737,13 +1737,13 @@
 </t>
   </si>
   <si>
+    <t>ClinicalProcedureTO.report</t>
+  </si>
+  <si>
     <t>./data</t>
   </si>
   <si>
     <t>ED.5</t>
-  </si>
-  <si>
-    <t>ClinicalProcedureTO.report</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
@@ -1841,10 +1841,10 @@
     <t>Attachment.title</t>
   </si>
   <si>
+    <t>ClinicalProcedureTO.name</t>
+  </si>
+  <si>
     <t>./title/data</t>
-  </si>
-  <si>
-    <t>ClinicalProcedureTO.name</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.creation</t>
@@ -2074,6 +2074,9 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
+    <t>GetLocation(ClinicalProcedureTO.facility.sitecode)</t>
+  </si>
+  <si>
     <t>Composition.event.detail</t>
   </si>
   <si>
@@ -2084,9 +2087,6 @@
   </si>
   <si>
     <t>DocumentEntry.referenceIdList</t>
-  </si>
-  <si>
-    <t>GetLocation(ClinicalProcedureTO.facility.sitecode)</t>
   </si>
 </sst>
 </file>
@@ -2458,14 +2458,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.89453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="45.89453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="157.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2716,7 +2716,7 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>81</v>
@@ -2725,7 +2725,7 @@
         <v>81</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3338,10 +3338,10 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>81</v>
@@ -3464,10 +3464,10 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>81</v>
@@ -3590,10 +3590,10 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>81</v>
@@ -3718,10 +3718,10 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>81</v>
@@ -3840,28 +3840,28 @@
         <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AQ11" t="s" s="2">
+      <c r="AR11" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AR11" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3962,22 +3962,22 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>171</v>
@@ -4088,28 +4088,28 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AR13" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4218,10 +4218,10 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -4344,10 +4344,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -4472,19 +4472,19 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR16" t="s" s="2">
         <v>81</v>
@@ -4600,19 +4600,19 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR17" t="s" s="2">
         <v>81</v>
@@ -4728,19 +4728,19 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
         <v>81</v>
@@ -4854,19 +4854,19 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
         <v>81</v>
@@ -4978,19 +4978,19 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR20" t="s" s="2">
         <v>81</v>
@@ -5104,19 +5104,19 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR21" t="s" s="2">
         <v>81</v>
@@ -5225,16 +5225,16 @@
         <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>257</v>
@@ -5351,22 +5351,22 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AN23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AP23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>81</v>
@@ -5474,28 +5474,28 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AQ24" t="s" s="2">
+      <c r="AR24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AR24" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5604,10 +5604,10 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5730,10 +5730,10 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5850,28 +5850,28 @@
         <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5984,19 +5984,19 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AR28" t="s" s="2">
         <v>81</v>
@@ -6108,10 +6108,10 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -6234,10 +6234,10 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -6362,19 +6362,19 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -6488,19 +6488,19 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR32" t="s" s="2">
         <v>81</v>
@@ -6614,19 +6614,19 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN33" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR33" t="s" s="2">
         <v>81</v>
@@ -6740,19 +6740,19 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR34" t="s" s="2">
         <v>81</v>
@@ -6868,19 +6868,19 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR35" t="s" s="2">
         <v>81</v>
@@ -6996,19 +6996,19 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -7114,10 +7114,10 @@
         <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>365</v>
@@ -7126,13 +7126,13 @@
         <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ37" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AR37" t="s" s="2">
         <v>368</v>
@@ -7245,7 +7245,7 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>365</v>
@@ -7254,16 +7254,16 @@
         <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ38" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -7373,7 +7373,7 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>365</v>
@@ -7382,16 +7382,16 @@
         <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AP39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ39" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7629,19 +7629,19 @@
         <v>395</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7746,28 +7746,28 @@
         <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AQ42" t="s" s="2">
+      <c r="AR42" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AR42" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7872,28 +7872,28 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AO43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AP43" t="s" s="2">
+      <c r="AQ43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AQ43" t="s" s="2">
+      <c r="AR43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AR43" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -8002,10 +8002,10 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -8128,10 +8128,10 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -8380,10 +8380,10 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -8506,10 +8506,10 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -8632,10 +8632,10 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8758,10 +8758,10 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8878,16 +8878,16 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -9007,14 +9007,14 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
@@ -9022,10 +9022,10 @@
         <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -9134,10 +9134,10 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -9260,10 +9260,10 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -9388,10 +9388,10 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -9511,14 +9511,14 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
@@ -9526,10 +9526,10 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR56" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AR56" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -9635,14 +9635,14 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9650,10 +9650,10 @@
         <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR57" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AR57" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -9766,22 +9766,22 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AQ58" t="s" s="2">
+      <c r="AR58" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AR58" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -9891,25 +9891,25 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AQ59" t="s" s="2">
+      <c r="AR59" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -10015,13 +10015,13 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -10142,10 +10142,10 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -10268,10 +10268,10 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -10396,10 +10396,10 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10517,25 +10517,25 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AQ64" t="s" s="2">
+      <c r="AR64" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10644,10 +10644,10 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -10770,10 +10770,10 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -10890,28 +10890,28 @@
         <v>106</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>536</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>537</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -11022,10 +11022,10 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -11144,28 +11144,28 @@
         <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="AQ69" t="s" s="2">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>555</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -11278,19 +11278,19 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR70" t="s" s="2">
         <v>81</v>
@@ -11406,10 +11406,10 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -11534,10 +11534,10 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -11654,16 +11654,16 @@
         <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>81</v>
+        <v>588</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11675,7 +11675,7 @@
         <v>81</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -11786,10 +11786,10 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11907,25 +11907,25 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR75" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -12036,10 +12036,10 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -12160,10 +12160,10 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -12286,10 +12286,10 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -12414,10 +12414,10 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -12532,22 +12532,22 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ80" t="s" s="2">
         <v>81</v>
@@ -12661,14 +12661,14 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AN81" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
       </c>
@@ -12676,10 +12676,10 @@
         <v>81</v>
       </c>
       <c r="AQ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR81" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="AR81" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -12785,25 +12785,25 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AO82" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR82" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AR82" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="83" hidden="true">
@@ -12909,25 +12909,25 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AO83" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR83" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AR83" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="84" hidden="true">
@@ -13037,25 +13037,25 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AO84" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR84" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AR84" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -13161,7 +13161,7 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>381</v>
@@ -13170,16 +13170,16 @@
         <v>382</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR85" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="AR85" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -13284,10 +13284,10 @@
         <v>106</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>662</v>
+        <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>663</v>
@@ -13296,13 +13296,13 @@
         <v>664</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>81</v>
+        <v>665</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ86" t="s" s="2">
-        <v>665</v>
+        <v>81</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>666</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8798,7 +8798,7 @@
         <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
@@ -9678,7 +9678,7 @@
         <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.ecg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
